--- a/medicine/Enfance/Arthur_Roth_(écrivain)/Arthur_Roth_(écrivain).xlsx
+++ b/medicine/Enfance/Arthur_Roth_(écrivain)/Arthur_Roth_(écrivain).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arthur_Roth_(%C3%A9crivain)</t>
+          <t>Arthur_Roth_(écrivain)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arthur Joseph Roth, né le 3 août 1925, dans le Bronx, à New York, et mort le 5 mars 1993 à Amagansett, à Long Island, est un romancier américain, spécialisé dans la littérature d'enfance et de jeunesse. Sous le pseudonyme de Slater McGurk, il a également publié trois romans policiers.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arthur_Roth_(%C3%A9crivain)</t>
+          <t>Arthur_Roth_(écrivain)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né dans le Bronx, il passe une bonne partie de son enfance en Irlande du Nord où s'installent ses parents. Il sert successivement dans l'Irish Republican Army, dans les Forces de Défense irlandaises et, de retour aux États-Unis, dans l'United States Air Force pendant la Seconde Guerre mondiale.  Après la fin du conflit, il obtient un baccalauréat universitaire de l'Université d'Arizona en 1954, puis une maîtrise en science politique de l'Université Columbia.
 Il amorce sa carrière d'écrivain par la publication de A Terrible Beauty qui évoque les activités de l'Armée républicaine irlandaise en 1941. Gros succès public et critique, ce roman est adapté au cinéma en 1960 par Tay Garnett sous le titre Les Combattants de la nuit (A Terrible Beauty), avec Robert Mitchum, Richard Harris et Anne Heywood.
 Après la parution d'un second roman, What Is The Stars? (1959), dont l'action se déroule aussi en Irlande pendant la Seconde Guerre mondiale, Arthur Roth devient chroniqueur pour la presse et se lance, sous le pseudonyme de Slater McGurk, dans le roman policier. Il fait aussi paraître, à partir de 1961, un grand nombre de romans d'aventures, parfois historiques, appartenant à la littérature d'enfance et de jeunesse. Certains des premiers titres paraissent sous la signature Pete Pomeroy.
-Il meurt d'un cancer du foie le 5 mars 1993[1].
+Il meurt d'un cancer du foie le 5 mars 1993.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arthur_Roth_(%C3%A9crivain)</t>
+          <t>Arthur_Roth_(écrivain)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,15 +561,88 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-A Terrible Beauty (1958)
-What Is The Stars? (1959)
-Romans policiers signés Slater McGurk
-The Grand Central Murders (1964) Publié en français sous le titre L'Assassin du vendredi, traduit par Peggy Dailly, Paris, Librairie des Champs-Élysées, coll. « Le Masque » no 896, 1965
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>A Terrible Beauty (1958)
+What Is The Stars? (1959)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Arthur_Roth_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arthur_Roth_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans policiers signés Slater McGurk</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>The Grand Central Murders (1964) Publié en français sous le titre L'Assassin du vendredi, traduit par Peggy Dailly, Paris, Librairie des Champs-Élysées, coll. « Le Masque » no 896, 1965
 The Copenhague Affair (1965), aussi titré The Denmark Bus
-The Big Dig (1968), réédité ultérieurement sous la signature Arthur J. Roth
-Ouvrages de littérature d'enfance et de jeunesse
-The Shame Of Our Wounds (1961)
+The Big Dig (1968), réédité ultérieurement sous la signature Arthur J. Roth</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Arthur_Roth_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arthur_Roth_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>The Shame Of Our Wounds (1961)
 Wipeout! (1968), première édition publiée sous le pseudonyme de Pete Pomeroy
 The Mallory Burn (1971), première édition publiée sous le pseudonyme de Pete Pomeroy
 Crash at Salty Bay (1972), première édition publiée sous le pseudonyme de Pete Pomeroy
@@ -575,40 +662,76 @@
 Trapped! (1983)
 Crash Landing! (1983)
 The Castaway (1983)
-Snowbound (1989)
-Autres publications
-The Teen-Age Years: A Medical Guide for Young People (1960)
+Snowbound (1989)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Arthur_Roth_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arthur_Roth_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>The Teen-Age Years: A Medical Guide for Young People (1960)
 Eiger: Wall of Death (1982)
 Great Spy Stories: Nine True Adventures (1982)
 Against Incredible Odds (1983)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Arthur_Roth_(%C3%A9crivain)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Arthur_Roth_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Arthur_Roth_(%C3%A9crivain)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>1960 : Les Combattants de la nuit (A Terrible Beauty), film américain réalisé par Tay Garnett, d'après le roman A Terrible Beauty, avec Robert Mitchum, Richard Harris et Anne Heywood.</t>
         </is>
